--- a/media/salary_files/林宏晉_IT00013_激勵性獎金.xlsx
+++ b/media/salary_files/林宏晉_IT00013_激勵性獎金.xlsx
@@ -997,11 +997,7 @@
           <t>部門名稱</t>
         </is>
       </c>
-      <c r="E3" s="36" t="inlineStr">
-        <is>
-          <t>工程1組</t>
-        </is>
-      </c>
+      <c r="E3" s="36" t="inlineStr"/>
     </row>
     <row r="4" ht="18" customHeight="1" s="40" thickBot="1">
       <c r="A4" s="41" t="inlineStr">
@@ -1050,140 +1046,92 @@
     <row r="6" ht="16.2" customHeight="1" s="40">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>基本薪資</t>
+          <t>免稅加班</t>
         </is>
       </c>
       <c r="B6" s="46" t="n">
-        <v>38325</v>
-      </c>
-      <c r="C6" s="23" t="inlineStr">
-        <is>
-          <t>勞保</t>
-        </is>
-      </c>
-      <c r="D6" s="47" t="n">
-        <v>1100</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C6" s="23" t="inlineStr"/>
+      <c r="D6" s="47" t="inlineStr"/>
       <c r="E6" s="48" t="inlineStr"/>
       <c r="F6" s="49" t="n"/>
     </row>
     <row r="7" ht="16.2" customHeight="1" s="40">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>職務加給</t>
+          <t>工作津貼</t>
         </is>
       </c>
       <c r="B7" s="50" t="n">
-        <v>10500</v>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>健保</t>
-        </is>
-      </c>
-      <c r="D7" s="50" t="n">
-        <v>400</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="50" t="n"/>
       <c r="E7" s="51" t="n"/>
       <c r="F7" s="52" t="n"/>
     </row>
     <row r="8" ht="16.2" customHeight="1" s="40">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>手機加給</t>
+          <t>出差津貼</t>
         </is>
       </c>
       <c r="B8" s="50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>勞退</t>
-        </is>
-      </c>
-      <c r="D8" s="50" t="n">
-        <v>2300</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="50" t="n"/>
       <c r="E8" s="51" t="n"/>
       <c r="F8" s="52" t="n"/>
     </row>
     <row r="9" ht="16.2" customHeight="1" s="40">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>證照加給</t>
+          <t>伙食津貼</t>
         </is>
       </c>
       <c r="B9" s="50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>事假</t>
-        </is>
-      </c>
-      <c r="D9" s="50" t="n">
-        <v>1280</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="50" t="n"/>
       <c r="E9" s="51" t="n"/>
       <c r="F9" s="52" t="n"/>
     </row>
     <row r="10" ht="16.2" customHeight="1" s="40">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>免稅加班</t>
+          <t>車程津貼</t>
         </is>
       </c>
       <c r="B10" s="50" t="n">
-        <v>268</v>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>病假</t>
-        </is>
-      </c>
-      <c r="D10" s="50" t="n">
-        <v>640</v>
-      </c>
+        <v>858</v>
+      </c>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="50" t="n"/>
       <c r="E10" s="51" t="n"/>
       <c r="F10" s="52" t="n"/>
     </row>
     <row r="11" ht="16.2" customHeight="1" s="40">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>工作津貼</t>
-        </is>
-      </c>
-      <c r="B11" s="50" t="n">
-        <v>429</v>
-      </c>
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="50" t="n"/>
       <c r="C11" s="5" t="n"/>
       <c r="D11" s="50" t="n"/>
       <c r="E11" s="51" t="n"/>
       <c r="F11" s="52" t="n"/>
     </row>
     <row r="12" ht="16.2" customHeight="1" s="40">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>出差津貼</t>
-        </is>
-      </c>
-      <c r="B12" s="50" t="n">
-        <v>250</v>
-      </c>
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="50" t="n"/>
       <c r="C12" s="5" t="n"/>
       <c r="D12" s="50" t="n"/>
       <c r="E12" s="51" t="n"/>
       <c r="F12" s="52" t="n"/>
     </row>
     <row r="13" ht="16.2" customHeight="1" s="40">
-      <c r="A13" s="9" t="inlineStr">
-        <is>
-          <t>伙食津貼</t>
-        </is>
-      </c>
-      <c r="B13" s="50" t="n">
-        <v>150</v>
-      </c>
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="50" t="n"/>
       <c r="C13" s="5" t="n"/>
       <c r="D13" s="50" t="n"/>
       <c r="E13" s="51" t="n"/>
@@ -1268,7 +1216,7 @@
         </is>
       </c>
       <c r="B23" s="57" t="n">
-        <v>51922</v>
+        <v>1955</v>
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
@@ -1276,7 +1224,7 @@
         </is>
       </c>
       <c r="D23" s="57" t="n">
-        <v>5720</v>
+        <v>0</v>
       </c>
       <c r="E23" s="20" t="inlineStr">
         <is>
@@ -1284,7 +1232,7 @@
         </is>
       </c>
       <c r="F23" s="58" t="n">
-        <v>46202</v>
+        <v>1955</v>
       </c>
     </row>
   </sheetData>

--- a/media/salary_files/林宏晉_IT00013_激勵性獎金.xlsx
+++ b/media/salary_files/林宏晉_IT00013_激勵性獎金.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B6" s="46" t="n">
-        <v>268</v>
+        <v>697</v>
       </c>
       <c r="C6" s="23" t="inlineStr"/>
       <c r="D6" s="47" t="inlineStr"/>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="B7" s="50" t="n">
-        <v>429</v>
+        <v>4698</v>
       </c>
       <c r="C7" s="5" t="n"/>
       <c r="D7" s="50" t="n"/>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B23" s="57" t="n">
-        <v>1955</v>
+        <v>6653</v>
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="F23" s="58" t="n">
-        <v>1955</v>
+        <v>6653</v>
       </c>
     </row>
   </sheetData>

--- a/media/salary_files/林宏晉_IT00013_激勵性獎金.xlsx
+++ b/media/salary_files/林宏晉_IT00013_激勵性獎金.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -989,7 +989,7 @@
       </c>
       <c r="B3" s="35" t="inlineStr">
         <is>
-          <t>2023年10月</t>
+          <t>2023年3月</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -997,7 +997,11 @@
           <t>部門名稱</t>
         </is>
       </c>
-      <c r="E3" s="36" t="inlineStr"/>
+      <c r="E3" s="36" t="inlineStr">
+        <is>
+          <t>工程1組</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="18" customHeight="1" s="40" thickBot="1">
       <c r="A4" s="41" t="inlineStr">
@@ -1050,7 +1054,7 @@
         </is>
       </c>
       <c r="B6" s="46" t="n">
-        <v>697</v>
+        <v>2835</v>
       </c>
       <c r="C6" s="23" t="inlineStr"/>
       <c r="D6" s="47" t="inlineStr"/>
@@ -1064,7 +1068,7 @@
         </is>
       </c>
       <c r="B7" s="50" t="n">
-        <v>4698</v>
+        <v>4480</v>
       </c>
       <c r="C7" s="5" t="n"/>
       <c r="D7" s="50" t="n"/>
@@ -1078,7 +1082,7 @@
         </is>
       </c>
       <c r="B8" s="50" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="C8" s="5" t="n"/>
       <c r="D8" s="50" t="n"/>
@@ -1092,7 +1096,7 @@
         </is>
       </c>
       <c r="B9" s="50" t="n">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="C9" s="5" t="n"/>
       <c r="D9" s="50" t="n"/>
@@ -1100,14 +1104,8 @@
       <c r="F9" s="52" t="n"/>
     </row>
     <row r="10" ht="16.2" customHeight="1" s="40">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>車程津貼</t>
-        </is>
-      </c>
-      <c r="B10" s="50" t="n">
-        <v>858</v>
-      </c>
+      <c r="A10" s="7" t="n"/>
+      <c r="B10" s="50" t="n"/>
       <c r="C10" s="5" t="n"/>
       <c r="D10" s="50" t="n"/>
       <c r="E10" s="51" t="n"/>
@@ -1216,7 +1214,7 @@
         </is>
       </c>
       <c r="B23" s="57" t="n">
-        <v>6653</v>
+        <v>9265</v>
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
@@ -1232,7 +1230,7 @@
         </is>
       </c>
       <c r="F23" s="58" t="n">
-        <v>6653</v>
+        <v>9265</v>
       </c>
     </row>
   </sheetData>

--- a/media/salary_files/林宏晉_IT00013_激勵性獎金.xlsx
+++ b/media/salary_files/林宏晉_IT00013_激勵性獎金.xlsx
@@ -953,15 +953,15 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16.33203125" customWidth="1" style="40" min="1" max="1"/>
     <col width="13" customWidth="1" style="40" min="2" max="2"/>
-    <col width="18.44140625" customWidth="1" style="40" min="3" max="3"/>
+    <col width="21" customWidth="1" style="40" min="3" max="3"/>
     <col width="15.44140625" bestFit="1" customWidth="1" style="40" min="4" max="4"/>
     <col width="10.21875" customWidth="1" style="40" min="5" max="5"/>
     <col width="14.5546875" customWidth="1" style="40" min="6" max="6"/>
@@ -989,7 +989,7 @@
       </c>
       <c r="B3" s="35" t="inlineStr">
         <is>
-          <t>2023年3月</t>
+          <t>2023年10月</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="B6" s="46" t="n">
-        <v>2835</v>
+        <v>4056</v>
       </c>
       <c r="C6" s="23" t="inlineStr"/>
       <c r="D6" s="47" t="inlineStr"/>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B7" s="50" t="n">
-        <v>4480</v>
+        <v>6289</v>
       </c>
       <c r="C7" s="5" t="n"/>
       <c r="D7" s="50" t="n"/>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B8" s="50" t="n">
-        <v>1200</v>
+        <v>1550</v>
       </c>
       <c r="C8" s="5" t="n"/>
       <c r="D8" s="50" t="n"/>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="B9" s="50" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="C9" s="5" t="n"/>
       <c r="D9" s="50" t="n"/>
@@ -1104,8 +1104,14 @@
       <c r="F9" s="52" t="n"/>
     </row>
     <row r="10" ht="16.2" customHeight="1" s="40">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="50" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>車程津貼</t>
+        </is>
+      </c>
+      <c r="B10" s="50" t="n">
+        <v>856</v>
+      </c>
       <c r="C10" s="5" t="n"/>
       <c r="D10" s="50" t="n"/>
       <c r="E10" s="51" t="n"/>
@@ -1214,7 +1220,7 @@
         </is>
       </c>
       <c r="B23" s="57" t="n">
-        <v>9265</v>
+        <v>13951</v>
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
@@ -1222,7 +1228,7 @@
         </is>
       </c>
       <c r="D23" s="57" t="n">
-        <v>0</v>
+        <v>-2748</v>
       </c>
       <c r="E23" s="20" t="inlineStr">
         <is>
@@ -1230,7 +1236,7 @@
         </is>
       </c>
       <c r="F23" s="58" t="n">
-        <v>9265</v>
+        <v>16699</v>
       </c>
     </row>
   </sheetData>
